--- a/examine_grade.xlsx
+++ b/examine_grade.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="11805"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="89">
   <si>
     <t>region</t>
   </si>
@@ -58,184 +58,175 @@
     <t>total</t>
   </si>
   <si>
+    <t>工管部</t>
+  </si>
+  <si>
+    <t>技术员</t>
+  </si>
+  <si>
+    <t>潘昌松</t>
+  </si>
+  <si>
+    <t>品保</t>
+  </si>
+  <si>
+    <t>杨世富</t>
+  </si>
+  <si>
+    <t>华南区域</t>
+  </si>
+  <si>
+    <t>硬景工程师</t>
+  </si>
+  <si>
+    <t>彭鸿凯</t>
+  </si>
+  <si>
+    <t>张弟双</t>
+  </si>
+  <si>
+    <t>华东区域</t>
+  </si>
+  <si>
+    <t>周杰</t>
+  </si>
+  <si>
     <t>西南区域</t>
   </si>
   <si>
-    <t>硬景工程师</t>
-  </si>
-  <si>
-    <t>罗远</t>
-  </si>
-  <si>
-    <t>华南区域</t>
-  </si>
-  <si>
-    <t>李帅</t>
-  </si>
-  <si>
-    <t>欧小福</t>
-  </si>
-  <si>
-    <t>杨岭</t>
+    <t>苏文静</t>
+  </si>
+  <si>
+    <t>韩划</t>
+  </si>
+  <si>
+    <t>王俊杰</t>
+  </si>
+  <si>
+    <t>谭翰林</t>
+  </si>
+  <si>
+    <t>张云松</t>
+  </si>
+  <si>
+    <t>胡彪</t>
+  </si>
+  <si>
+    <t>唐晶鹏</t>
+  </si>
+  <si>
+    <t>田富祺</t>
+  </si>
+  <si>
+    <t>沈成龙</t>
+  </si>
+  <si>
+    <t>华中区域</t>
+  </si>
+  <si>
+    <t>陶飞</t>
+  </si>
+  <si>
+    <t>张丽</t>
+  </si>
+  <si>
+    <t>何德高</t>
+  </si>
+  <si>
+    <t>曾龙</t>
+  </si>
+  <si>
+    <t>陈烨</t>
+  </si>
+  <si>
+    <t>蒙端</t>
+  </si>
+  <si>
+    <t>袁晶晶</t>
+  </si>
+  <si>
+    <t>杜小康</t>
+  </si>
+  <si>
+    <t>范文杰</t>
+  </si>
+  <si>
+    <t>冉将军</t>
+  </si>
+  <si>
+    <t>牟小君</t>
+  </si>
+  <si>
+    <t>程姜军</t>
+  </si>
+  <si>
+    <t>廖杭</t>
+  </si>
+  <si>
+    <t>秦雪红</t>
+  </si>
+  <si>
+    <t>杨丕锐</t>
+  </si>
+  <si>
+    <t>王万杰</t>
+  </si>
+  <si>
+    <t>董发明</t>
+  </si>
+  <si>
+    <t>陈李兵</t>
+  </si>
+  <si>
+    <t>黄港文</t>
+  </si>
+  <si>
+    <t>李路</t>
+  </si>
+  <si>
+    <t>童凯宇</t>
+  </si>
+  <si>
+    <t>甘功海</t>
+  </si>
+  <si>
+    <t>龚发莹</t>
+  </si>
+  <si>
+    <t>龚毅</t>
+  </si>
+  <si>
+    <t>熊聪聪</t>
+  </si>
+  <si>
+    <t>苏灿华</t>
+  </si>
+  <si>
+    <t>刘开林</t>
+  </si>
+  <si>
+    <t>龚国胜</t>
+  </si>
+  <si>
+    <t>黄国俊</t>
+  </si>
+  <si>
+    <t>陈浩</t>
+  </si>
+  <si>
+    <t>倪西豪</t>
+  </si>
+  <si>
+    <t>李鹏</t>
+  </si>
+  <si>
+    <t>唐玉</t>
+  </si>
+  <si>
+    <t>杨玉麟</t>
   </si>
   <si>
     <t>王磊</t>
-  </si>
-  <si>
-    <t>工管部</t>
-  </si>
-  <si>
-    <t>技术员</t>
-  </si>
-  <si>
-    <t>杨玉麟</t>
-  </si>
-  <si>
-    <t>唐玉</t>
-  </si>
-  <si>
-    <t>李鹏</t>
-  </si>
-  <si>
-    <t>倪西豪</t>
-  </si>
-  <si>
-    <t>陈浩</t>
-  </si>
-  <si>
-    <t>华东区域</t>
-  </si>
-  <si>
-    <t>龚国胜</t>
-  </si>
-  <si>
-    <t>黄国俊</t>
-  </si>
-  <si>
-    <t>刘开林</t>
-  </si>
-  <si>
-    <t>牟小君</t>
-  </si>
-  <si>
-    <t>苏灿华</t>
-  </si>
-  <si>
-    <t>甘功海</t>
-  </si>
-  <si>
-    <t>王万杰</t>
-  </si>
-  <si>
-    <t>龚毅</t>
-  </si>
-  <si>
-    <t>熊聪聪</t>
-  </si>
-  <si>
-    <t>廖杭</t>
-  </si>
-  <si>
-    <t>华中区域</t>
-  </si>
-  <si>
-    <t>童凯宇</t>
-  </si>
-  <si>
-    <t>秦雪红</t>
-  </si>
-  <si>
-    <t>杨丕锐</t>
-  </si>
-  <si>
-    <t>陈李兵</t>
-  </si>
-  <si>
-    <t>黄港文</t>
-  </si>
-  <si>
-    <t>李路</t>
-  </si>
-  <si>
-    <t>龚发莹</t>
-  </si>
-  <si>
-    <t>蒙端</t>
-  </si>
-  <si>
-    <t>冉将军</t>
-  </si>
-  <si>
-    <t>袁晶晶</t>
-  </si>
-  <si>
-    <t>杜小康</t>
-  </si>
-  <si>
-    <t>程姜军</t>
-  </si>
-  <si>
-    <t>董发明</t>
-  </si>
-  <si>
-    <t>陈烨</t>
-  </si>
-  <si>
-    <t>沈成龙</t>
-  </si>
-  <si>
-    <t>张丽</t>
-  </si>
-  <si>
-    <t>范文杰</t>
-  </si>
-  <si>
-    <t>唐晶鹏</t>
-  </si>
-  <si>
-    <t>曾龙</t>
-  </si>
-  <si>
-    <t>胡彪</t>
-  </si>
-  <si>
-    <t>何德高</t>
-  </si>
-  <si>
-    <t>张云松</t>
-  </si>
-  <si>
-    <t>田富祺</t>
-  </si>
-  <si>
-    <t>陶飞</t>
-  </si>
-  <si>
-    <t>王俊杰</t>
-  </si>
-  <si>
-    <t>谭翰林</t>
-  </si>
-  <si>
-    <t>苏文静</t>
-  </si>
-  <si>
-    <t>韩划</t>
-  </si>
-  <si>
-    <t>周杰</t>
-  </si>
-  <si>
-    <t>张弟双</t>
-  </si>
-  <si>
-    <t>彭鸿凯</t>
-  </si>
-  <si>
-    <t>潘昌松</t>
-  </si>
-  <si>
-    <t>杨世富</t>
   </si>
   <si>
     <t>2025年区域</t>
@@ -1582,12 +1573,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="I54" sqref="A51:I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1631,515 +1622,575 @@
       <c r="C2" t="s">
         <v>11</v>
       </c>
+      <c r="D2">
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>25</v>
+      </c>
+      <c r="H2">
+        <v>13</v>
+      </c>
       <c r="I2">
-        <f t="shared" ref="I2:I54" si="0">D2+E2+F2+G2+H2</f>
-        <v>0</v>
+        <f t="shared" ref="I2:I50" si="0">SUM(D2:H2)</f>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>18</v>
+      </c>
+      <c r="F3">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <v>24</v>
+      </c>
+      <c r="H3">
+        <v>8</v>
+      </c>
       <c r="I3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>16</v>
+      </c>
+      <c r="E4">
         <v>14</v>
       </c>
+      <c r="F4">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>24</v>
+      </c>
+      <c r="H4">
+        <v>9</v>
+      </c>
       <c r="I4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <v>11</v>
+      </c>
+      <c r="G5">
+        <v>22</v>
+      </c>
+      <c r="H5">
+        <v>8</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>13</v>
+      </c>
+      <c r="G6">
+        <v>18</v>
+      </c>
+      <c r="H6">
         <v>8</v>
       </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="F6">
-        <v>8</v>
-      </c>
-      <c r="G6">
-        <v>9</v>
-      </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7">
-        <v>8</v>
-      </c>
       <c r="E7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G9">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E10">
+        <v>12</v>
+      </c>
+      <c r="F10">
+        <v>13</v>
+      </c>
+      <c r="G10">
+        <v>21</v>
+      </c>
+      <c r="H10">
         <v>6</v>
       </c>
-      <c r="F10">
-        <v>12</v>
-      </c>
-      <c r="G10">
-        <v>10</v>
-      </c>
-      <c r="H10">
-        <v>4</v>
-      </c>
       <c r="I10">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F11">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I11">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G12">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I12">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F13">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G13">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I13">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G14">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I14">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>16</v>
+      </c>
+      <c r="F15">
+        <v>12</v>
+      </c>
+      <c r="G15">
+        <v>20</v>
+      </c>
+      <c r="H15">
         <v>9</v>
       </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15">
-        <v>16</v>
-      </c>
-      <c r="E15">
-        <v>12</v>
-      </c>
-      <c r="F15">
-        <v>9</v>
-      </c>
-      <c r="G15">
-        <v>10</v>
-      </c>
-      <c r="H15">
-        <v>4</v>
-      </c>
       <c r="I15">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D16">
         <v>14</v>
       </c>
       <c r="E16">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F16">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G16">
+        <v>23</v>
+      </c>
+      <c r="H16">
         <v>8</v>
       </c>
-      <c r="H16">
-        <v>5</v>
-      </c>
       <c r="I16">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D17">
         <v>14</v>
       </c>
       <c r="E17">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F17">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G17">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I17">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D18">
         <v>14</v>
       </c>
       <c r="E18">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F18">
         <v>11</v>
       </c>
       <c r="G18">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H18">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I18">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D19">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E19">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F19">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G19">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H19">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I19">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D20">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E20">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F20">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G20">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H20">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I20">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D21">
         <v>16</v>
@@ -2148,737 +2199,737 @@
         <v>8</v>
       </c>
       <c r="F21">
+        <v>12</v>
+      </c>
+      <c r="G21">
+        <v>20</v>
+      </c>
+      <c r="H21">
         <v>9</v>
       </c>
-      <c r="G21">
-        <v>15</v>
-      </c>
-      <c r="H21">
-        <v>5</v>
-      </c>
       <c r="I21">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D22">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E22">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F22">
         <v>12</v>
       </c>
       <c r="G22">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H22">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I22">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23">
+        <v>12</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <v>12</v>
+      </c>
+      <c r="G23">
+        <v>22</v>
+      </c>
+      <c r="H23">
         <v>9</v>
       </c>
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23">
-        <v>10</v>
-      </c>
-      <c r="E23">
-        <v>12</v>
-      </c>
-      <c r="F23">
-        <v>13</v>
-      </c>
-      <c r="G23">
-        <v>13</v>
-      </c>
-      <c r="H23">
-        <v>5</v>
-      </c>
       <c r="I23">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D24">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E24">
+        <v>16</v>
+      </c>
+      <c r="F24">
+        <v>12</v>
+      </c>
+      <c r="G24">
+        <v>20</v>
+      </c>
+      <c r="H24">
         <v>6</v>
       </c>
-      <c r="F24">
-        <v>10</v>
-      </c>
-      <c r="G24">
-        <v>18</v>
-      </c>
-      <c r="H24">
-        <v>7</v>
-      </c>
       <c r="I24">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D25">
         <v>14</v>
       </c>
       <c r="E25">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F25">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G25">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H25">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I25">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D26">
+        <v>16</v>
+      </c>
+      <c r="E26">
+        <v>12</v>
+      </c>
+      <c r="F26">
+        <v>9</v>
+      </c>
+      <c r="G26">
+        <v>18</v>
+      </c>
+      <c r="H26">
         <v>8</v>
       </c>
-      <c r="E26">
-        <v>10</v>
-      </c>
-      <c r="F26">
-        <v>11</v>
-      </c>
-      <c r="G26">
-        <v>20</v>
-      </c>
-      <c r="H26">
-        <v>5</v>
-      </c>
       <c r="I26">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D27">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E27">
+        <v>12</v>
+      </c>
+      <c r="F27">
+        <v>11</v>
+      </c>
+      <c r="G27">
+        <v>17</v>
+      </c>
+      <c r="H27">
         <v>6</v>
       </c>
-      <c r="F27">
-        <v>9</v>
-      </c>
-      <c r="G27">
-        <v>22</v>
-      </c>
-      <c r="H27">
-        <v>7</v>
-      </c>
       <c r="I27">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D28">
+        <v>16</v>
+      </c>
+      <c r="E28">
         <v>8</v>
       </c>
-      <c r="E28">
-        <v>10</v>
-      </c>
       <c r="F28">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G28">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H28">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I28">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D29">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E29">
+        <v>12</v>
+      </c>
+      <c r="F29">
+        <v>13</v>
+      </c>
+      <c r="G29">
+        <v>19</v>
+      </c>
+      <c r="H29">
         <v>8</v>
       </c>
-      <c r="F29">
-        <v>12</v>
-      </c>
-      <c r="G29">
-        <v>13</v>
-      </c>
-      <c r="H29">
-        <v>7</v>
-      </c>
       <c r="I29">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D30">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E30">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F30">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G30">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H30">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I30">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D31">
         <v>14</v>
       </c>
       <c r="E31">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F31">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G31">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H31">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I31">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D32">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E32">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F32">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G32">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H32">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I32">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B33" t="s">
         <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D33">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E33">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F33">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G33">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H33">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I33">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D34">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E34">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F34">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G34">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H34">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I34">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35">
+        <v>10</v>
+      </c>
+      <c r="E35">
+        <v>6</v>
+      </c>
+      <c r="F35">
         <v>9</v>
       </c>
-      <c r="B35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35">
-        <v>16</v>
-      </c>
-      <c r="E35">
-        <v>8</v>
-      </c>
-      <c r="F35">
-        <v>14</v>
-      </c>
       <c r="G35">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="H35">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I35">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D36">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E36">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F36">
         <v>12</v>
       </c>
       <c r="G36">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H36">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I36">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D37">
         <v>14</v>
       </c>
       <c r="E37">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F37">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G37">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H37">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I37">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D38">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E38">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F38">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G38">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H38">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I38">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B39" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D39">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E39">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F39">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G39">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H39">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I39">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D40">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E40">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F40">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G40">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H40">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I40">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D41">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E41">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F41">
         <v>12</v>
       </c>
       <c r="G41">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H41">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I41">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D42">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E42">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F42">
         <v>11</v>
       </c>
       <c r="G42">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H42">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I42">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D43">
         <v>14</v>
       </c>
       <c r="E43">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F43">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G43">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H43">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I43">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B44" t="s">
         <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D44">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E44">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F44">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G44">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H44">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I44">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D45">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E45">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F45">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G45">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H45">
         <v>5</v>
       </c>
       <c r="I45">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2889,136 +2940,136 @@
         <v>10</v>
       </c>
       <c r="C46" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D46">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E46">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F46">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G46">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H46">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I46">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B47" t="s">
         <v>10</v>
       </c>
       <c r="C47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D47">
+        <v>10</v>
+      </c>
+      <c r="E47">
+        <v>8</v>
+      </c>
+      <c r="F47">
+        <v>11</v>
+      </c>
+      <c r="G47">
         <v>16</v>
-      </c>
-      <c r="E47">
-        <v>12</v>
-      </c>
-      <c r="F47">
-        <v>13</v>
-      </c>
-      <c r="G47">
-        <v>19</v>
       </c>
       <c r="H47">
         <v>4</v>
       </c>
       <c r="I47">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48">
+        <v>10</v>
+      </c>
+      <c r="E48">
+        <v>4</v>
+      </c>
+      <c r="F48">
         <v>9</v>
-      </c>
-      <c r="B48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48" t="s">
-        <v>62</v>
-      </c>
-      <c r="D48">
-        <v>18</v>
-      </c>
-      <c r="E48">
-        <v>10</v>
-      </c>
-      <c r="F48">
-        <v>12</v>
       </c>
       <c r="G48">
         <v>17</v>
       </c>
       <c r="H48">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I48">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B49" t="s">
         <v>10</v>
       </c>
       <c r="C49" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D49">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E49">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F49">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G49">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H49">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I49">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B50" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C50" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D50">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E50">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F50">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G50">
         <v>16</v>
@@ -3028,127 +3079,7 @@
       </c>
       <c r="I50">
         <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" t="s">
-        <v>17</v>
-      </c>
-      <c r="B51" t="s">
-        <v>18</v>
-      </c>
-      <c r="C51" t="s">
-        <v>65</v>
-      </c>
-      <c r="D51">
-        <v>18</v>
-      </c>
-      <c r="E51">
-        <v>14</v>
-      </c>
-      <c r="F51">
-        <v>11</v>
-      </c>
-      <c r="G51">
-        <v>20</v>
-      </c>
-      <c r="H51">
-        <v>6</v>
-      </c>
-      <c r="I51">
-        <f t="shared" si="0"/>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" t="s">
-        <v>12</v>
-      </c>
-      <c r="B52" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" t="s">
-        <v>66</v>
-      </c>
-      <c r="D52">
-        <v>16</v>
-      </c>
-      <c r="E52">
-        <v>14</v>
-      </c>
-      <c r="F52">
-        <v>11</v>
-      </c>
-      <c r="G52">
-        <v>20</v>
-      </c>
-      <c r="H52">
-        <v>9</v>
-      </c>
-      <c r="I52">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" t="s">
-        <v>17</v>
-      </c>
-      <c r="B53" t="s">
-        <v>18</v>
-      </c>
-      <c r="C53" t="s">
-        <v>67</v>
-      </c>
-      <c r="D53">
-        <v>14</v>
-      </c>
-      <c r="E53">
-        <v>12</v>
-      </c>
-      <c r="F53">
-        <v>13</v>
-      </c>
-      <c r="G53">
-        <v>21</v>
-      </c>
-      <c r="H53">
-        <v>13</v>
-      </c>
-      <c r="I53">
-        <f t="shared" si="0"/>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" t="s">
-        <v>17</v>
-      </c>
-      <c r="B54" t="s">
-        <v>18</v>
-      </c>
-      <c r="C54" t="s">
-        <v>68</v>
-      </c>
-      <c r="D54">
-        <v>12</v>
-      </c>
-      <c r="E54">
-        <v>18</v>
-      </c>
-      <c r="F54">
-        <v>14</v>
-      </c>
-      <c r="G54">
-        <v>22</v>
-      </c>
-      <c r="H54">
-        <v>8</v>
-      </c>
-      <c r="I54">
-        <f t="shared" si="0"/>
-        <v>74</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -3176,42 +3107,42 @@
   <sheetData>
     <row r="1" ht="45" customHeight="1" spans="1:9">
       <c r="A1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" ht="45" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D2">
         <v>23</v>
@@ -3232,13 +3163,13 @@
     </row>
     <row r="3" ht="45" customHeight="1" spans="1:9">
       <c r="A3" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D3">
         <v>21</v>
@@ -3259,13 +3190,13 @@
     </row>
     <row r="4" ht="45" customHeight="1" spans="1:9">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>81</v>
       </c>
       <c r="D4">
         <v>21</v>
@@ -3286,13 +3217,13 @@
     </row>
     <row r="5" ht="45" customHeight="1" spans="1:9">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D5">
         <v>18</v>
@@ -3313,13 +3244,13 @@
     </row>
     <row r="6" ht="45" customHeight="1" spans="1:9">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D6">
         <v>20</v>
@@ -3340,13 +3271,13 @@
     </row>
     <row r="7" ht="45" customHeight="1" spans="1:9">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D7">
         <v>19</v>
@@ -3367,13 +3298,13 @@
     </row>
     <row r="8" ht="45" customHeight="1" spans="1:9">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D8">
         <v>18</v>
@@ -3394,13 +3325,13 @@
     </row>
     <row r="9" ht="45" customHeight="1" spans="1:9">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D9">
         <v>17</v>
@@ -3421,10 +3352,10 @@
     </row>
     <row r="10" ht="45" customHeight="1" spans="1:9">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10">
@@ -3687,42 +3618,42 @@
   <sheetData>
     <row r="1" ht="36" customHeight="1" spans="1:9">
       <c r="A1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" ht="36" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -3743,13 +3674,13 @@
     </row>
     <row r="3" ht="36" customHeight="1" spans="1:9">
       <c r="A3" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D3">
         <v>14</v>
@@ -3770,13 +3701,13 @@
     </row>
     <row r="4" ht="36" customHeight="1" spans="1:9">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>90</v>
       </c>
       <c r="D4">
         <v>16</v>
@@ -3797,13 +3728,13 @@
     </row>
     <row r="5" ht="36" customHeight="1" spans="1:9">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <v>16</v>
